--- a/src/main/resources/cargoList - workshop.csv.xlsx
+++ b/src/main/resources/cargoList - workshop.csv.xlsx
@@ -741,8 +741,8 @@
   </sheetPr>
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B120" activeCellId="0" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3131,8 +3131,8 @@
       <c r="A120" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B120" s="9" t="n">
-        <v>10</v>
+      <c r="B120" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="C120" s="9" t="n">
         <v>6.06</v>
